--- a/Ref_Models.xlsx
+++ b/Ref_Models.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugob\Desktop\Cours\ZZ2\Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugob\Desktop\Cours\ZZ2\ProjetZZ2-Module-de-formation-virtuelle-pour-Fareva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC019C-7D50-4318-9C97-8152792320C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7640214B-050E-424E-95C8-4C9886593874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Paillasse</t>
   </si>
   <si>
-    <t>Simple lab bench free 3D model | CGTrader</t>
+    <t>Pince</t>
+  </si>
+  <si>
+    <t>https://www.cgtrader.com/free-3d-models/science/laboratory/simple-lab-bench</t>
+  </si>
+  <si>
+    <t>https://www.turbosquid.com/fr/3d-models/plier-file-openable-3d-model-1419103#</t>
   </si>
 </sst>
 </file>
@@ -360,17 +366,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="40.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -378,15 +384,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
         <v>44866</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://www.cgtrader.com/free-3d-models/science/laboratory/simple-lab-bench" xr:uid="{EFD94BA6-C9D4-4632-8191-AA66AC45CD5D}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{EFD94BA6-C9D4-4632-8191-AA66AC45CD5D}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{95F8B6B9-C427-488E-B044-B6C87FCF41E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
